--- a/testout_top_timing_tran_fullfreq_post_May9_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_fullfreq_post_May9_tsmc2ff_meas.xlsx
@@ -432,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE8B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +470,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,139 +1032,139 @@
         <v>77</v>
       </c>
       <c r="T2">
-        <v>51.3531</v>
+        <v>254.355</v>
       </c>
       <c r="U2">
-        <v>59.2953</v>
+        <v>259.697</v>
       </c>
       <c r="V2">
-        <v>55.3242</v>
+        <v>257.026</v>
       </c>
       <c r="W2">
-        <v>59.93920000000001</v>
+        <v>254.593</v>
       </c>
       <c r="X2">
-        <v>69.1623</v>
+        <v>267.15</v>
       </c>
       <c r="Y2">
-        <v>64.5508</v>
+        <v>260.871</v>
       </c>
       <c r="Z2">
-        <v>166.999</v>
+        <v>461.182</v>
       </c>
       <c r="AA2">
-        <v>165.456</v>
+        <v>468.271</v>
       </c>
       <c r="AB2">
-        <v>166.228</v>
+        <v>464.727</v>
       </c>
       <c r="AC2" s="2">
-        <v>27.6312</v>
+        <v>32.8113</v>
       </c>
       <c r="AD2" s="2">
-        <v>25.306</v>
+        <v>28.7686</v>
       </c>
       <c r="AE2" s="2">
-        <v>30.5872</v>
+        <v>34.0115</v>
       </c>
       <c r="AF2" s="2">
-        <v>28.2317</v>
+        <v>31.8256</v>
       </c>
       <c r="AG2" s="2">
-        <v>23.92</v>
+        <v>28.2276</v>
       </c>
       <c r="AH2" s="2">
-        <v>20.7793</v>
+        <v>25.0751</v>
       </c>
       <c r="AI2">
-        <v>9.821580000000001</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>10.724</v>
+        <v>5.77287</v>
+      </c>
+      <c r="AJ2">
+        <v>6.58411</v>
       </c>
       <c r="AK2">
-        <v>7.32865</v>
+        <v>5.86351</v>
       </c>
       <c r="AL2">
-        <v>7.94012</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>3.75493</v>
-      </c>
-      <c r="AN2">
-        <v>4.32246</v>
-      </c>
-      <c r="AO2">
-        <v>48.7818</v>
+        <v>6.26623</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>2.98853</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>3.36425</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>43.1997</v>
       </c>
       <c r="AP2">
-        <v>48.8695</v>
+        <v>46.8196</v>
       </c>
       <c r="AQ2">
-        <v>51.7832</v>
+        <v>52.3278</v>
       </c>
       <c r="AR2">
-        <v>619.323</v>
+        <v>565.1180000000001</v>
       </c>
       <c r="AS2">
-        <v>167.02</v>
+        <v>249.425</v>
       </c>
       <c r="AT2">
-        <v>257.48</v>
+        <v>312.564</v>
       </c>
       <c r="AU2">
-        <v>528.8629999999999</v>
+        <v>501.9789999999999</v>
       </c>
       <c r="AV2">
-        <v>393.172</v>
+        <v>407.272</v>
       </c>
       <c r="AW2">
-        <v>452.303</v>
+        <v>315.693</v>
       </c>
       <c r="AX2">
-        <v>1137.43</v>
+        <v>1445.37</v>
       </c>
       <c r="AY2">
-        <v>583.274</v>
+        <v>558.982</v>
       </c>
       <c r="AZ2">
-        <v>209.668</v>
+        <v>226.604</v>
       </c>
       <c r="BA2">
-        <v>284.389</v>
+        <v>293.08</v>
       </c>
       <c r="BB2">
-        <v>508.553</v>
+        <v>492.5069999999999</v>
       </c>
       <c r="BC2">
-        <v>396.471</v>
+        <v>392.793</v>
       </c>
       <c r="BD2">
-        <v>373.605</v>
+        <v>332.378</v>
       </c>
       <c r="BE2">
-        <v>1347.91</v>
+        <v>1446.3</v>
       </c>
       <c r="BF2">
-        <v>473.196</v>
+        <v>466.409</v>
       </c>
       <c r="BG2">
-        <v>323.5</v>
+        <v>325.811</v>
       </c>
       <c r="BH2">
-        <v>353.439</v>
+        <v>353.93</v>
       </c>
       <c r="BI2">
-        <v>443.257</v>
+        <v>438.289</v>
       </c>
       <c r="BJ2">
-        <v>398.348</v>
+        <v>396.11</v>
       </c>
       <c r="BK2">
-        <v>149.697</v>
+        <v>140.599</v>
       </c>
       <c r="BL2">
-        <v>1450.77</v>
+        <v>1646.22</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -1233,139 +1226,139 @@
         <v>93</v>
       </c>
       <c r="T3">
-        <v>60.47160000000001</v>
+        <v>261.679</v>
       </c>
       <c r="U3">
-        <v>65.9906</v>
+        <v>267.48</v>
       </c>
       <c r="V3">
-        <v>63.2311</v>
+        <v>264.579</v>
       </c>
       <c r="W3">
-        <v>70.13290000000001</v>
+        <v>261.983</v>
       </c>
       <c r="X3">
-        <v>75.476</v>
+        <v>274.542</v>
       </c>
       <c r="Y3">
-        <v>72.8044</v>
+        <v>268.262</v>
       </c>
       <c r="Z3">
-        <v>270.434</v>
+        <v>363.73</v>
       </c>
       <c r="AA3">
-        <v>273.104</v>
+        <v>373.579</v>
       </c>
       <c r="AB3">
-        <v>271.769</v>
+        <v>368.655</v>
       </c>
       <c r="AC3" s="2">
-        <v>28.4126</v>
+        <v>31.2863</v>
       </c>
       <c r="AD3" s="2">
-        <v>26.0373</v>
+        <v>27.5812</v>
       </c>
       <c r="AE3" s="2">
-        <v>30.4339</v>
+        <v>32.8453</v>
       </c>
       <c r="AF3" s="2">
-        <v>28.1759</v>
+        <v>30.6919</v>
       </c>
       <c r="AG3" s="2">
-        <v>24.9843</v>
+        <v>26.5945</v>
       </c>
       <c r="AH3" s="2">
-        <v>21.844</v>
+        <v>23.431</v>
       </c>
       <c r="AI3">
-        <v>8.868639999999999</v>
+        <v>6.16399</v>
       </c>
       <c r="AJ3">
-        <v>9.67769</v>
+        <v>6.99203</v>
       </c>
       <c r="AK3">
-        <v>6.79813</v>
+        <v>6.19298</v>
       </c>
       <c r="AL3">
-        <v>7.34294</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>3.42297</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>3.91506</v>
-      </c>
-      <c r="AO3">
-        <v>46.056</v>
+        <v>6.62748</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>3.22743</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>3.66318</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>44.2745</v>
       </c>
       <c r="AP3">
-        <v>46.891</v>
+        <v>47.5383</v>
       </c>
       <c r="AQ3">
-        <v>50.9308</v>
+        <v>51.4727</v>
       </c>
       <c r="AR3">
-        <v>613.34</v>
+        <v>578.3829999999999</v>
       </c>
       <c r="AS3">
-        <v>193.372</v>
+        <v>256.97</v>
       </c>
       <c r="AT3">
-        <v>277.365</v>
+        <v>321.252</v>
       </c>
       <c r="AU3">
-        <v>529.346</v>
+        <v>514.101</v>
       </c>
       <c r="AV3">
-        <v>403.356</v>
+        <v>417.676</v>
       </c>
       <c r="AW3">
-        <v>419.968</v>
+        <v>321.414</v>
       </c>
       <c r="AX3">
-        <v>1145.75</v>
+        <v>1452.88</v>
       </c>
       <c r="AY3">
-        <v>577.843</v>
+        <v>573.3399999999999</v>
       </c>
       <c r="AZ3">
-        <v>233.02</v>
+        <v>234.323</v>
       </c>
       <c r="BA3">
-        <v>301.984</v>
+        <v>302.127</v>
       </c>
       <c r="BB3">
-        <v>508.878</v>
+        <v>505.537</v>
       </c>
       <c r="BC3">
-        <v>405.431</v>
+        <v>403.832</v>
       </c>
       <c r="BD3">
-        <v>344.823</v>
+        <v>339.017</v>
       </c>
       <c r="BE3">
-        <v>1356.05</v>
+        <v>1454.07</v>
       </c>
       <c r="BF3">
-        <v>478.856</v>
+        <v>479.962</v>
       </c>
       <c r="BG3">
-        <v>336.322</v>
+        <v>336.909</v>
       </c>
       <c r="BH3">
-        <v>364.829</v>
+        <v>365.5189999999999</v>
       </c>
       <c r="BI3">
-        <v>450.349</v>
+        <v>451.351</v>
       </c>
       <c r="BJ3">
-        <v>407.589</v>
+        <v>408.435</v>
       </c>
       <c r="BK3">
-        <v>142.534</v>
+        <v>143.053</v>
       </c>
       <c r="BL3">
-        <v>1458.67</v>
+        <v>1654.39</v>
       </c>
     </row>
     <row r="4" spans="1:64">
@@ -1427,139 +1420,139 @@
         <v>97</v>
       </c>
       <c r="T4">
-        <v>60.04729999999999</v>
+        <v>262.235</v>
       </c>
       <c r="U4">
-        <v>66.64869999999999</v>
+        <v>266.8270000000001</v>
       </c>
       <c r="V4">
-        <v>63.34800000000001</v>
+        <v>264.531</v>
       </c>
       <c r="W4">
-        <v>69.42230000000001</v>
+        <v>262.417</v>
       </c>
       <c r="X4">
-        <v>76.309</v>
+        <v>274.196</v>
       </c>
       <c r="Y4">
-        <v>72.8657</v>
+        <v>268.306</v>
       </c>
       <c r="Z4">
-        <v>269.793</v>
+        <v>469.165</v>
       </c>
       <c r="AA4">
-        <v>273.652</v>
+        <v>476.444</v>
       </c>
       <c r="AB4">
-        <v>271.723</v>
+        <v>472.804</v>
       </c>
       <c r="AC4" s="2">
-        <v>28.2243</v>
+        <v>32.198</v>
       </c>
       <c r="AD4" s="2">
-        <v>25.2333</v>
+        <v>27.7569</v>
       </c>
       <c r="AE4" s="2">
-        <v>30.5455</v>
+        <v>33.6082</v>
       </c>
       <c r="AF4" s="2">
-        <v>27.8029</v>
+        <v>30.9025</v>
       </c>
       <c r="AG4" s="2">
-        <v>24.8124</v>
+        <v>28.9327</v>
       </c>
       <c r="AH4" s="2">
-        <v>21.1071</v>
+        <v>25.0711</v>
       </c>
       <c r="AI4">
-        <v>9.53618</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>10.6665</v>
+        <v>6.13597</v>
+      </c>
+      <c r="AJ4">
+        <v>7.11772</v>
       </c>
       <c r="AK4">
-        <v>7.24276</v>
+        <v>6.20445</v>
       </c>
       <c r="AL4">
-        <v>7.95722</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>3.65428</v>
-      </c>
-      <c r="AN4">
-        <v>4.29578</v>
-      </c>
-      <c r="AO4">
-        <v>47.4646</v>
+        <v>6.74769</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>3.12075</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>3.60142</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>43.2756</v>
       </c>
       <c r="AP4">
-        <v>47.8665</v>
+        <v>46.8286</v>
       </c>
       <c r="AQ4">
-        <v>51.5093</v>
+        <v>52.0345</v>
       </c>
       <c r="AR4">
-        <v>630.2910000000001</v>
+        <v>588.05</v>
       </c>
       <c r="AS4">
-        <v>181.705</v>
+        <v>258.774</v>
       </c>
       <c r="AT4">
-        <v>271.422</v>
+        <v>324.629</v>
       </c>
       <c r="AU4">
-        <v>540.574</v>
+        <v>522.1949999999999</v>
       </c>
       <c r="AV4">
-        <v>405.998</v>
+        <v>423.412</v>
       </c>
       <c r="AW4">
-        <v>448.586</v>
+        <v>329.276</v>
       </c>
       <c r="AX4">
-        <v>1145.68</v>
+        <v>1453.15</v>
       </c>
       <c r="AY4">
-        <v>593.617</v>
+        <v>581.9490000000001</v>
       </c>
       <c r="AZ4">
-        <v>224.894</v>
+        <v>234.415</v>
       </c>
       <c r="BA4">
-        <v>298.638</v>
+        <v>303.922</v>
       </c>
       <c r="BB4">
-        <v>519.872</v>
+        <v>512.4419999999999</v>
       </c>
       <c r="BC4">
-        <v>409.255</v>
+        <v>408.182</v>
       </c>
       <c r="BD4">
-        <v>368.723</v>
+        <v>347.534</v>
       </c>
       <c r="BE4">
-        <v>1356.13</v>
+        <v>1454.12</v>
       </c>
       <c r="BF4">
-        <v>487.205</v>
+        <v>486.643</v>
       </c>
       <c r="BG4">
-        <v>336.086</v>
+        <v>336.157</v>
       </c>
       <c r="BH4">
-        <v>366.31</v>
+        <v>366.254</v>
       </c>
       <c r="BI4">
-        <v>456.981</v>
+        <v>456.546</v>
       </c>
       <c r="BJ4">
-        <v>411.645</v>
+        <v>411.4</v>
       </c>
       <c r="BK4">
-        <v>151.119</v>
+        <v>150.486</v>
       </c>
       <c r="BL4">
-        <v>1458.8</v>
+        <v>1654.14</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1621,139 +1614,139 @@
         <v>100</v>
       </c>
       <c r="T5">
-        <v>69.44080000000001</v>
+        <v>268.446</v>
       </c>
       <c r="U5">
-        <v>72.60950000000001</v>
+        <v>273.262</v>
       </c>
       <c r="V5">
-        <v>71.0252</v>
+        <v>270.854</v>
       </c>
       <c r="W5">
-        <v>272.483</v>
+        <v>268.485</v>
       </c>
       <c r="X5">
-        <v>284.12</v>
+        <v>280.8200000000001</v>
       </c>
       <c r="Y5">
-        <v>278.301</v>
+        <v>274.653</v>
       </c>
       <c r="Z5">
-        <v>372.725</v>
+        <v>475.7620000000001</v>
       </c>
       <c r="AA5">
-        <v>382.573</v>
+        <v>482.595</v>
       </c>
       <c r="AB5">
-        <v>377.649</v>
+        <v>479.179</v>
       </c>
       <c r="AC5" s="2">
-        <v>29.1243</v>
+        <v>32.0716</v>
       </c>
       <c r="AD5" s="2">
-        <v>26.25</v>
+        <v>28.0945</v>
       </c>
       <c r="AE5" s="2">
-        <v>31.2432</v>
+        <v>33.5552</v>
       </c>
       <c r="AF5" s="2">
-        <v>28.4668</v>
+        <v>31.4694</v>
       </c>
       <c r="AG5" s="2">
-        <v>26.0483</v>
+        <v>28.2685</v>
       </c>
       <c r="AH5" s="2">
-        <v>22.7341</v>
+        <v>24.7524</v>
       </c>
       <c r="AI5">
-        <v>7.31636</v>
+        <v>5.29785</v>
       </c>
       <c r="AJ5">
-        <v>8.11745</v>
+        <v>6.04783</v>
       </c>
       <c r="AK5">
-        <v>5.59597</v>
+        <v>5.37206</v>
       </c>
       <c r="AL5">
-        <v>6.14174</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>2.85926</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>3.27608</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>43.717</v>
+        <v>5.72813</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>2.7219</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>3.10854</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>42.7755</v>
       </c>
       <c r="AP5">
-        <v>48.5422</v>
+        <v>46.5812</v>
       </c>
       <c r="AQ5">
-        <v>49.6573</v>
+        <v>50.9665</v>
       </c>
       <c r="AR5">
-        <v>539.6260000000001</v>
+        <v>513.244</v>
       </c>
       <c r="AS5">
-        <v>184.487</v>
+        <v>230.059</v>
       </c>
       <c r="AT5">
-        <v>255.515</v>
+        <v>286.696</v>
       </c>
       <c r="AU5">
-        <v>468.598</v>
+        <v>456.607</v>
       </c>
       <c r="AV5">
-        <v>362.057</v>
+        <v>371.652</v>
       </c>
       <c r="AW5">
-        <v>355.139</v>
+        <v>283.184</v>
       </c>
       <c r="AX5">
-        <v>1153.72</v>
+        <v>1459.51</v>
       </c>
       <c r="AY5">
-        <v>509.347</v>
+        <v>508.031</v>
       </c>
       <c r="AZ5">
-        <v>217.954</v>
+        <v>207.597</v>
       </c>
       <c r="BA5">
-        <v>276.233</v>
+        <v>267.683</v>
       </c>
       <c r="BB5">
-        <v>451.069</v>
+        <v>447.944</v>
       </c>
       <c r="BC5">
-        <v>363.651</v>
+        <v>357.814</v>
       </c>
       <c r="BD5">
-        <v>291.393</v>
+        <v>300.434</v>
       </c>
       <c r="BE5">
-        <v>1464</v>
+        <v>1460.34</v>
       </c>
       <c r="BF5">
-        <v>427.852</v>
+        <v>425.637</v>
       </c>
       <c r="BG5">
-        <v>303.72</v>
+        <v>297.397</v>
       </c>
       <c r="BH5">
-        <v>328.547</v>
+        <v>323.045</v>
       </c>
       <c r="BI5">
-        <v>403.025</v>
+        <v>399.989</v>
       </c>
       <c r="BJ5">
-        <v>365.786</v>
+        <v>361.517</v>
       </c>
       <c r="BK5">
-        <v>124.131</v>
+        <v>128.24</v>
       </c>
       <c r="BL5">
-        <v>1565.42</v>
+        <v>1660.7</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -1815,139 +1808,139 @@
         <v>93</v>
       </c>
       <c r="T6">
-        <v>71.5351</v>
+        <v>273.829</v>
       </c>
       <c r="U6">
-        <v>75.49470000000001</v>
+        <v>274.482</v>
       </c>
       <c r="V6">
-        <v>73.5149</v>
+        <v>274.155</v>
       </c>
       <c r="W6">
-        <v>177.989</v>
+        <v>273.03</v>
       </c>
       <c r="X6">
-        <v>189.972</v>
+        <v>282.9</v>
       </c>
       <c r="Y6">
-        <v>183.98</v>
+        <v>277.965</v>
       </c>
       <c r="Z6">
-        <v>374.959</v>
+        <v>479.821</v>
       </c>
       <c r="AA6">
-        <v>385.184</v>
+        <v>486.4760000000001</v>
       </c>
       <c r="AB6">
-        <v>380.071</v>
+        <v>483.148</v>
       </c>
       <c r="AC6" s="2">
-        <v>29.3054</v>
+        <v>32.0496</v>
       </c>
       <c r="AD6" s="2">
-        <v>25.2439</v>
+        <v>26.4927</v>
       </c>
       <c r="AE6" s="2">
-        <v>30.9047</v>
+        <v>34.0373</v>
       </c>
       <c r="AF6" s="2">
-        <v>27.4351</v>
+        <v>30.4441</v>
       </c>
       <c r="AG6" s="2">
-        <v>26.312</v>
+        <v>32.8839</v>
       </c>
       <c r="AH6" s="2">
-        <v>21.9599</v>
+        <v>28.1853</v>
       </c>
       <c r="AI6">
-        <v>7.70013</v>
+        <v>5.26622</v>
       </c>
       <c r="AJ6">
-        <v>8.93901</v>
+        <v>6.3708</v>
       </c>
       <c r="AK6">
-        <v>5.99045</v>
+        <v>5.36561</v>
       </c>
       <c r="AL6">
-        <v>6.74804</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>2.99428</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>3.58769</v>
-      </c>
-      <c r="AO6" s="5">
-        <v>44.9304</v>
+        <v>5.9989</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>2.5137</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>2.93274</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>40.4406</v>
       </c>
       <c r="AP6">
-        <v>45.7052</v>
+        <v>45.2849</v>
       </c>
       <c r="AQ6">
-        <v>50.162</v>
+        <v>51.4843</v>
       </c>
       <c r="AR6">
-        <v>554.744</v>
+        <v>523.163</v>
       </c>
       <c r="AS6">
-        <v>178.652</v>
+        <v>241.863</v>
       </c>
       <c r="AT6">
-        <v>253.87</v>
+        <v>298.123</v>
       </c>
       <c r="AU6">
-        <v>479.525</v>
+        <v>466.903</v>
       </c>
       <c r="AV6">
-        <v>366.698</v>
+        <v>382.513</v>
       </c>
       <c r="AW6">
-        <v>376.092</v>
+        <v>281.3</v>
       </c>
       <c r="AX6">
-        <v>1156.02</v>
+        <v>1464</v>
       </c>
       <c r="AY6">
-        <v>523.847</v>
+        <v>517.201</v>
       </c>
       <c r="AZ6">
-        <v>215.291</v>
+        <v>212.817</v>
       </c>
       <c r="BA6">
-        <v>277.002</v>
+        <v>273.694</v>
       </c>
       <c r="BB6">
-        <v>462.136</v>
+        <v>456.325</v>
       </c>
       <c r="BC6">
-        <v>369.569</v>
+        <v>365.009</v>
       </c>
       <c r="BD6">
-        <v>308.556</v>
+        <v>304.385</v>
       </c>
       <c r="BE6">
-        <v>1366.37</v>
+        <v>1464.18</v>
       </c>
       <c r="BF6">
-        <v>437.636</v>
+        <v>436.587</v>
       </c>
       <c r="BG6">
-        <v>306.327</v>
+        <v>298.82</v>
       </c>
       <c r="BH6">
-        <v>332.589</v>
+        <v>326.373</v>
       </c>
       <c r="BI6">
-        <v>411.374</v>
+        <v>409.034</v>
       </c>
       <c r="BJ6">
-        <v>371.981</v>
+        <v>367.703</v>
       </c>
       <c r="BK6">
-        <v>131.309</v>
+        <v>137.767</v>
       </c>
       <c r="BL6">
-        <v>1567.99</v>
+        <v>1663.31</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -2009,139 +2002,139 @@
         <v>113</v>
       </c>
       <c r="T7">
-        <v>44.3733</v>
+        <v>247.494</v>
       </c>
       <c r="U7">
-        <v>52.7648</v>
+        <v>254.321</v>
       </c>
       <c r="V7">
-        <v>48.569</v>
+        <v>250.907</v>
       </c>
       <c r="W7">
-        <v>52.3054</v>
+        <v>248.138</v>
       </c>
       <c r="X7">
-        <v>63.0257</v>
+        <v>261.222</v>
       </c>
       <c r="Y7">
-        <v>57.6656</v>
+        <v>254.68</v>
       </c>
       <c r="Z7">
-        <v>159.078</v>
+        <v>454.463</v>
       </c>
       <c r="AA7">
-        <v>159.358</v>
+        <v>461.842</v>
       </c>
       <c r="AB7">
-        <v>159.218</v>
+        <v>458.153</v>
       </c>
       <c r="AC7" s="2">
-        <v>26.9131</v>
+        <v>32.8374</v>
       </c>
       <c r="AD7" s="2">
-        <v>24.9908</v>
+        <v>29.3197</v>
       </c>
       <c r="AE7" s="2">
-        <v>30.5479</v>
+        <v>33.8181</v>
       </c>
       <c r="AF7" s="2">
-        <v>28.4606</v>
+        <v>31.9867</v>
       </c>
       <c r="AG7" s="2">
-        <v>23.3819</v>
+        <v>27.4588</v>
       </c>
       <c r="AH7" s="2">
-        <v>20.5211</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>10.5584</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>11.3705</v>
+        <v>24.7712</v>
+      </c>
+      <c r="AI7">
+        <v>5.85859</v>
+      </c>
+      <c r="AJ7">
+        <v>6.56149</v>
       </c>
       <c r="AK7">
-        <v>7.74855</v>
+        <v>5.93003</v>
       </c>
       <c r="AL7">
-        <v>8.31681</v>
-      </c>
-      <c r="AM7">
-        <v>4.00914</v>
-      </c>
-      <c r="AN7">
-        <v>4.56805</v>
-      </c>
-      <c r="AO7">
-        <v>49.6369</v>
+        <v>6.26957</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>3.05309</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>3.38434</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>44.4196</v>
       </c>
       <c r="AP7">
-        <v>49.573</v>
+        <v>47.5117</v>
       </c>
       <c r="AQ7">
-        <v>49.7422</v>
+        <v>52.9006</v>
       </c>
       <c r="AR7">
-        <v>642.976</v>
+        <v>584.218</v>
       </c>
       <c r="AS7">
-        <v>169.379</v>
+        <v>263.584</v>
       </c>
       <c r="AT7">
-        <v>264.098</v>
+        <v>327.711</v>
       </c>
       <c r="AU7">
-        <v>548.2569999999999</v>
+        <v>520.091</v>
       </c>
       <c r="AV7">
-        <v>406.177</v>
+        <v>423.901</v>
       </c>
       <c r="AW7">
-        <v>473.597</v>
+        <v>320.634</v>
       </c>
       <c r="AX7">
-        <v>1130.55</v>
+        <v>1438.45</v>
       </c>
       <c r="AY7">
-        <v>606.5930000000001</v>
+        <v>578.272</v>
       </c>
       <c r="AZ7">
-        <v>212.09</v>
+        <v>244.034</v>
       </c>
       <c r="BA7">
-        <v>290.991</v>
+        <v>310.881</v>
       </c>
       <c r="BB7">
-        <v>527.692</v>
+        <v>511.424</v>
       </c>
       <c r="BC7">
-        <v>409.341</v>
+        <v>411.153</v>
       </c>
       <c r="BD7">
-        <v>394.503</v>
+        <v>334.238</v>
       </c>
       <c r="BE7">
-        <v>1341.02</v>
+        <v>1439.7</v>
       </c>
       <c r="BF7">
-        <v>489.263</v>
+        <v>484.011</v>
       </c>
       <c r="BG7">
-        <v>333.027</v>
+        <v>344.287</v>
       </c>
       <c r="BH7">
-        <v>364.274</v>
+        <v>372.232</v>
       </c>
       <c r="BI7">
-        <v>458.015</v>
+        <v>456.066</v>
       </c>
       <c r="BJ7">
-        <v>411.145</v>
+        <v>414.149</v>
       </c>
       <c r="BK7">
-        <v>156.235</v>
+        <v>139.724</v>
       </c>
       <c r="BL7">
-        <v>1343.34</v>
+        <v>1639.99</v>
       </c>
     </row>
     <row r="8" spans="1:64">
@@ -2203,139 +2196,139 @@
         <v>115</v>
       </c>
       <c r="T8">
-        <v>42.2183</v>
+        <v>54.7919</v>
       </c>
       <c r="U8">
-        <v>51.29040000000001</v>
+        <v>50.9402</v>
       </c>
       <c r="V8">
-        <v>46.7543</v>
+        <v>52.866</v>
       </c>
       <c r="W8">
-        <v>49.731</v>
+        <v>246.615</v>
       </c>
       <c r="X8">
-        <v>61.7964</v>
+        <v>260.02</v>
       </c>
       <c r="Y8">
-        <v>55.7637</v>
+        <v>253.318</v>
       </c>
       <c r="Z8">
-        <v>156.03</v>
+        <v>347.286</v>
       </c>
       <c r="AA8">
-        <v>157.885</v>
+        <v>358.029</v>
       </c>
       <c r="AB8">
-        <v>156.957</v>
+        <v>352.657</v>
       </c>
       <c r="AC8" s="2">
-        <v>26.4359</v>
+        <v>33.2875</v>
       </c>
       <c r="AD8" s="2">
-        <v>24.5257</v>
+        <v>29.6781</v>
       </c>
       <c r="AE8" s="2">
-        <v>30.6493</v>
+        <v>34.0204</v>
       </c>
       <c r="AF8" s="2">
-        <v>28.4686</v>
+        <v>32.0282</v>
       </c>
       <c r="AG8" s="2">
-        <v>23.3736</v>
+        <v>27.5616</v>
       </c>
       <c r="AH8" s="2">
-        <v>20.3757</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>11.553</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>12.4528</v>
+        <v>24.668</v>
+      </c>
+      <c r="AI8">
+        <v>6.2396</v>
+      </c>
+      <c r="AJ8">
+        <v>6.99845</v>
       </c>
       <c r="AK8">
-        <v>8.315</v>
+        <v>6.30357</v>
       </c>
       <c r="AL8">
-        <v>8.951930000000001</v>
-      </c>
-      <c r="AM8">
-        <v>4.29717</v>
-      </c>
-      <c r="AN8">
-        <v>4.92943</v>
-      </c>
-      <c r="AO8">
-        <v>50.495</v>
+        <v>6.69567</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>3.23063</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>3.6096</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>44.7643</v>
       </c>
       <c r="AP8">
-        <v>50.2568</v>
+        <v>47.5788</v>
       </c>
       <c r="AQ8">
-        <v>50.1098</v>
+        <v>52.8233</v>
       </c>
       <c r="AR8">
-        <v>659.5029999999999</v>
+        <v>594.967</v>
       </c>
       <c r="AS8">
-        <v>150.479</v>
+        <v>248.8</v>
       </c>
       <c r="AT8">
-        <v>252.284</v>
+        <v>318.033</v>
       </c>
       <c r="AU8">
-        <v>557.698</v>
+        <v>525.734</v>
       </c>
       <c r="AV8">
-        <v>404.991</v>
+        <v>421.883</v>
       </c>
       <c r="AW8">
-        <v>509.023</v>
+        <v>346.1679999999999</v>
       </c>
       <c r="AX8">
-        <v>1128.42</v>
+        <v>1436.89</v>
       </c>
       <c r="AY8">
-        <v>621.3539999999999</v>
+        <v>587.941</v>
       </c>
       <c r="AZ8">
-        <v>196.606</v>
+        <v>230.525</v>
       </c>
       <c r="BA8">
-        <v>281.556</v>
+        <v>302.008</v>
       </c>
       <c r="BB8">
-        <v>536.405</v>
+        <v>516.458</v>
       </c>
       <c r="BC8">
-        <v>408.98</v>
+        <v>409.233</v>
       </c>
       <c r="BD8">
-        <v>424.748</v>
+        <v>357.417</v>
       </c>
       <c r="BE8">
-        <v>1338.91</v>
+        <v>1438.29</v>
       </c>
       <c r="BF8">
-        <v>495.334</v>
+        <v>486.638</v>
       </c>
       <c r="BG8">
-        <v>327.933</v>
+        <v>338.236</v>
       </c>
       <c r="BH8">
-        <v>361.414</v>
+        <v>367.916</v>
       </c>
       <c r="BI8">
-        <v>461.854</v>
+        <v>456.958</v>
       </c>
       <c r="BJ8">
-        <v>411.634</v>
+        <v>412.437</v>
       </c>
       <c r="BK8">
-        <v>167.401</v>
+        <v>148.403</v>
       </c>
       <c r="BL8">
-        <v>1341.57</v>
+        <v>1638.66</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2397,139 +2390,139 @@
         <v>77</v>
       </c>
       <c r="T9">
-        <v>47.9259</v>
+        <v>250.584</v>
       </c>
       <c r="U9">
-        <v>55.8842</v>
+        <v>257.575</v>
       </c>
       <c r="V9">
-        <v>51.905</v>
+        <v>254.079</v>
       </c>
       <c r="W9">
-        <v>56.2208</v>
+        <v>251.299</v>
       </c>
       <c r="X9">
-        <v>65.9263</v>
+        <v>264.363</v>
       </c>
       <c r="Y9">
-        <v>61.0736</v>
+        <v>257.831</v>
       </c>
       <c r="Z9">
-        <v>163.33</v>
+        <v>351.624</v>
       </c>
       <c r="AA9">
-        <v>162.298</v>
+        <v>362.568</v>
       </c>
       <c r="AB9">
-        <v>162.814</v>
+        <v>357.096</v>
       </c>
       <c r="AC9" s="2">
-        <v>27.3091</v>
+        <v>32.4415</v>
       </c>
       <c r="AD9" s="2">
-        <v>25.2793</v>
+        <v>28.86</v>
       </c>
       <c r="AE9" s="2">
-        <v>30.5524</v>
+        <v>33.4913</v>
       </c>
       <c r="AF9" s="2">
-        <v>28.4021</v>
+        <v>31.5286</v>
       </c>
       <c r="AG9" s="2">
-        <v>23.6663</v>
+        <v>27.0947</v>
       </c>
       <c r="AH9" s="2">
-        <v>20.7806</v>
+        <v>24.2551</v>
       </c>
       <c r="AI9">
-        <v>9.01914</v>
+        <v>5.32739</v>
       </c>
       <c r="AJ9">
-        <v>9.743320000000001</v>
+        <v>5.9885</v>
       </c>
       <c r="AK9">
-        <v>6.69197</v>
+        <v>5.37631</v>
       </c>
       <c r="AL9">
-        <v>7.19862</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>3.4477</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>3.92648</v>
-      </c>
-      <c r="AO9">
-        <v>49.0475</v>
+        <v>5.711</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>2.78038</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>3.10588</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>44.8569</v>
       </c>
       <c r="AP9">
-        <v>49.0468</v>
+        <v>47.7783</v>
       </c>
       <c r="AQ9">
-        <v>51.7928</v>
+        <v>52.7916</v>
       </c>
       <c r="AR9">
-        <v>568.7809999999999</v>
+        <v>522.224</v>
       </c>
       <c r="AS9">
-        <v>158.274</v>
+        <v>234.176</v>
       </c>
       <c r="AT9">
-        <v>240.375</v>
+        <v>291.786</v>
       </c>
       <c r="AU9">
-        <v>486.679</v>
+        <v>464.614</v>
       </c>
       <c r="AV9">
-        <v>363.527</v>
+        <v>378.2</v>
       </c>
       <c r="AW9">
-        <v>410.507</v>
+        <v>288.047</v>
       </c>
       <c r="AX9">
-        <v>1133.98</v>
+        <v>1441.57</v>
       </c>
       <c r="AY9">
-        <v>536.645</v>
+        <v>517.22</v>
       </c>
       <c r="AZ9">
-        <v>195.885</v>
+        <v>217.12</v>
       </c>
       <c r="BA9">
-        <v>264.037</v>
+        <v>277.14</v>
       </c>
       <c r="BB9">
-        <v>468.493</v>
+        <v>457.2</v>
       </c>
       <c r="BC9">
-        <v>366.265</v>
+        <v>367.17</v>
       </c>
       <c r="BD9">
-        <v>340.76</v>
+        <v>300.099</v>
       </c>
       <c r="BE9">
-        <v>1344.44</v>
+        <v>1442.92</v>
       </c>
       <c r="BF9">
-        <v>435.779</v>
+        <v>432.753</v>
       </c>
       <c r="BG9">
-        <v>299.788</v>
+        <v>307.197</v>
       </c>
       <c r="BH9">
-        <v>326.986</v>
+        <v>332.308</v>
       </c>
       <c r="BI9">
-        <v>408.581</v>
+        <v>407.642</v>
       </c>
       <c r="BJ9">
-        <v>367.784</v>
+        <v>369.975</v>
       </c>
       <c r="BK9">
-        <v>135.991</v>
+        <v>125.556</v>
       </c>
       <c r="BL9">
-        <v>1447.36</v>
+        <v>1643.33</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2591,139 +2584,139 @@
         <v>113</v>
       </c>
       <c r="T10">
-        <v>46.5676</v>
+        <v>249.923</v>
       </c>
       <c r="U10">
-        <v>55.3787</v>
+        <v>256.766</v>
       </c>
       <c r="V10">
-        <v>50.9732</v>
+        <v>253.344</v>
       </c>
       <c r="W10">
-        <v>54.5011</v>
+        <v>250.571</v>
       </c>
       <c r="X10">
-        <v>65.59990000000001</v>
+        <v>263.647</v>
       </c>
       <c r="Y10">
-        <v>60.05050000000001</v>
+        <v>257.109</v>
       </c>
       <c r="Z10">
-        <v>161.104</v>
+        <v>456.851</v>
       </c>
       <c r="AA10">
-        <v>161.838</v>
+        <v>464.186</v>
       </c>
       <c r="AB10">
-        <v>161.471</v>
+        <v>460.519</v>
       </c>
       <c r="AC10" s="2">
-        <v>27.0065</v>
+        <v>33.2985</v>
       </c>
       <c r="AD10" s="2">
-        <v>24.8073</v>
+        <v>29.3848</v>
       </c>
       <c r="AE10" s="2">
-        <v>30.7017</v>
+        <v>34.1398</v>
       </c>
       <c r="AF10" s="2">
-        <v>28.3357</v>
+        <v>31.963</v>
       </c>
       <c r="AG10" s="2">
-        <v>23.5698</v>
+        <v>28.0103</v>
       </c>
       <c r="AH10" s="2">
-        <v>20.3428</v>
+        <v>24.9504</v>
       </c>
       <c r="AI10">
-        <v>9.81744</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>10.6878</v>
+        <v>5.46497</v>
+      </c>
+      <c r="AJ10">
+        <v>6.19283</v>
       </c>
       <c r="AK10">
-        <v>7.17301</v>
+        <v>5.53703</v>
       </c>
       <c r="AL10">
-        <v>7.77196</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>3.6989</v>
-      </c>
-      <c r="AN10">
-        <v>4.28566</v>
-      </c>
-      <c r="AO10">
-        <v>50.0092</v>
+        <v>5.91412</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>2.82421</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>3.17056</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>44.1677</v>
       </c>
       <c r="AP10">
-        <v>49.7831</v>
+        <v>47.2717</v>
       </c>
       <c r="AQ10">
-        <v>49.965</v>
+        <v>52.8085</v>
       </c>
       <c r="AR10">
-        <v>583.803</v>
+        <v>528.8739999999999</v>
       </c>
       <c r="AS10">
-        <v>141.912</v>
+        <v>225.583</v>
       </c>
       <c r="AT10">
-        <v>230.29</v>
+        <v>286.241</v>
       </c>
       <c r="AU10">
-        <v>495.425</v>
+        <v>468.216</v>
       </c>
       <c r="AV10">
-        <v>362.857</v>
+        <v>377.228</v>
       </c>
       <c r="AW10">
-        <v>441.891</v>
+        <v>303.292</v>
       </c>
       <c r="AX10">
-        <v>1132.75</v>
+        <v>1441.01</v>
       </c>
       <c r="AY10">
-        <v>550.0119999999999</v>
+        <v>522.7349999999999</v>
       </c>
       <c r="AZ10">
-        <v>182.972</v>
+        <v>207.68</v>
       </c>
       <c r="BA10">
-        <v>256.38</v>
+        <v>270.691</v>
       </c>
       <c r="BB10">
-        <v>476.604</v>
+        <v>459.724</v>
       </c>
       <c r="BC10">
-        <v>366.492</v>
+        <v>365.208</v>
       </c>
       <c r="BD10">
-        <v>367.04</v>
+        <v>315.0549999999999</v>
       </c>
       <c r="BE10">
-        <v>1343.28</v>
+        <v>1442.24</v>
       </c>
       <c r="BF10">
-        <v>441.112</v>
+        <v>433.798</v>
       </c>
       <c r="BG10">
-        <v>295.808</v>
+        <v>301.953</v>
       </c>
       <c r="BH10">
-        <v>324.869</v>
+        <v>328.322</v>
       </c>
       <c r="BI10">
-        <v>412.051</v>
+        <v>407.429</v>
       </c>
       <c r="BJ10">
-        <v>368.46</v>
+        <v>367.876</v>
       </c>
       <c r="BK10">
-        <v>145.304</v>
+        <v>131.845</v>
       </c>
       <c r="BL10">
-        <v>1345.68</v>
+        <v>1642.41</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2925,139 +2918,139 @@
         <v>118</v>
       </c>
       <c r="T12" s="1">
-        <v>42.2183</v>
+        <v>54.7919</v>
       </c>
       <c r="U12" s="1">
-        <v>51.29040000000001</v>
+        <v>50.9402</v>
       </c>
       <c r="V12" s="1">
-        <v>46.7543</v>
+        <v>52.866</v>
       </c>
       <c r="W12" s="1">
-        <v>49.731</v>
+        <v>246.615</v>
       </c>
       <c r="X12" s="1">
-        <v>61.7964</v>
+        <v>260.02</v>
       </c>
       <c r="Y12" s="1">
-        <v>55.7637</v>
+        <v>253.318</v>
       </c>
       <c r="Z12" s="1">
-        <v>156.03</v>
+        <v>347.286</v>
       </c>
       <c r="AA12" s="1">
-        <v>157.885</v>
+        <v>358.029</v>
       </c>
       <c r="AB12" s="1">
-        <v>156.957</v>
+        <v>352.657</v>
       </c>
       <c r="AC12" s="2">
-        <v>26.4359</v>
+        <v>31.2863</v>
       </c>
       <c r="AD12" s="2">
-        <v>24.5257</v>
+        <v>26.4927</v>
       </c>
       <c r="AE12" s="2">
-        <v>30.4339</v>
+        <v>32.8453</v>
       </c>
       <c r="AF12" s="2">
-        <v>27.4351</v>
+        <v>30.4441</v>
       </c>
       <c r="AG12" s="2">
-        <v>23.3736</v>
+        <v>26.5945</v>
       </c>
       <c r="AH12" s="2">
-        <v>20.3428</v>
+        <v>23.431</v>
       </c>
       <c r="AI12" s="1">
-        <v>7.31636</v>
+        <v>5.26622</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8.11745</v>
+        <v>5.9885</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.59597</v>
+        <v>5.36561</v>
       </c>
       <c r="AL12" s="1">
-        <v>6.14174</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>2.85926</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>3.27608</v>
-      </c>
-      <c r="AO12" s="5">
-        <v>43.717</v>
+        <v>5.711</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>2.5137</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>2.93274</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>40.4406</v>
       </c>
       <c r="AP12" s="1">
-        <v>45.7052</v>
+        <v>45.2849</v>
       </c>
       <c r="AQ12" s="1">
-        <v>49.6573</v>
+        <v>50.9665</v>
       </c>
       <c r="AR12" s="1">
-        <v>539.6260000000001</v>
+        <v>513.244</v>
       </c>
       <c r="AS12" s="1">
-        <v>141.912</v>
+        <v>225.583</v>
       </c>
       <c r="AT12" s="1">
-        <v>230.29</v>
+        <v>286.241</v>
       </c>
       <c r="AU12" s="1">
-        <v>468.598</v>
+        <v>456.607</v>
       </c>
       <c r="AV12" s="1">
-        <v>362.057</v>
+        <v>371.652</v>
       </c>
       <c r="AW12" s="1">
-        <v>355.139</v>
+        <v>281.3</v>
       </c>
       <c r="AX12" s="1">
-        <v>1128.42</v>
+        <v>1436.89</v>
       </c>
       <c r="AY12" s="1">
-        <v>509.347</v>
+        <v>508.031</v>
       </c>
       <c r="AZ12" s="1">
-        <v>182.972</v>
+        <v>207.597</v>
       </c>
       <c r="BA12" s="1">
-        <v>256.38</v>
+        <v>267.683</v>
       </c>
       <c r="BB12" s="1">
-        <v>451.069</v>
+        <v>447.944</v>
       </c>
       <c r="BC12" s="1">
-        <v>363.651</v>
+        <v>357.814</v>
       </c>
       <c r="BD12" s="1">
-        <v>291.393</v>
+        <v>300.099</v>
       </c>
       <c r="BE12" s="1">
-        <v>1338.91</v>
+        <v>1438.29</v>
       </c>
       <c r="BF12" s="1">
-        <v>427.852</v>
+        <v>425.637</v>
       </c>
       <c r="BG12" s="1">
-        <v>295.808</v>
+        <v>297.397</v>
       </c>
       <c r="BH12" s="1">
-        <v>324.869</v>
+        <v>323.045</v>
       </c>
       <c r="BI12" s="1">
-        <v>403.025</v>
+        <v>399.989</v>
       </c>
       <c r="BJ12" s="1">
-        <v>365.786</v>
+        <v>361.517</v>
       </c>
       <c r="BK12" s="1">
-        <v>124.131</v>
+        <v>125.556</v>
       </c>
       <c r="BL12" s="1">
-        <v>1341.57</v>
+        <v>1638.66</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
@@ -3065,139 +3058,139 @@
         <v>119</v>
       </c>
       <c r="T13" s="1">
-        <v>71.5351</v>
+        <v>273.829</v>
       </c>
       <c r="U13" s="1">
-        <v>75.49470000000001</v>
+        <v>274.482</v>
       </c>
       <c r="V13" s="1">
-        <v>73.5149</v>
+        <v>274.155</v>
       </c>
       <c r="W13" s="1">
-        <v>272.483</v>
+        <v>273.03</v>
       </c>
       <c r="X13" s="1">
-        <v>284.12</v>
+        <v>282.9</v>
       </c>
       <c r="Y13" s="1">
-        <v>278.301</v>
+        <v>277.965</v>
       </c>
       <c r="Z13" s="1">
-        <v>374.959</v>
+        <v>479.821</v>
       </c>
       <c r="AA13" s="1">
-        <v>385.184</v>
+        <v>486.4760000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>380.071</v>
+        <v>483.148</v>
       </c>
       <c r="AC13" s="2">
-        <v>29.3054</v>
+        <v>33.2985</v>
       </c>
       <c r="AD13" s="2">
-        <v>26.25</v>
+        <v>29.6781</v>
       </c>
       <c r="AE13" s="2">
-        <v>31.2432</v>
+        <v>34.1398</v>
       </c>
       <c r="AF13" s="2">
-        <v>28.4686</v>
+        <v>32.0282</v>
       </c>
       <c r="AG13" s="2">
-        <v>26.312</v>
+        <v>32.8839</v>
       </c>
       <c r="AH13" s="2">
-        <v>22.7341</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>11.553</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>12.4528</v>
+        <v>28.1853</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>6.2396</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>7.11772</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.315</v>
+        <v>6.30357</v>
       </c>
       <c r="AL13" s="1">
-        <v>8.951930000000001</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>4.29717</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>4.92943</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>50.495</v>
+        <v>6.74769</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>3.23063</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>3.66318</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>44.8569</v>
       </c>
       <c r="AP13" s="1">
-        <v>50.2568</v>
+        <v>47.7783</v>
       </c>
       <c r="AQ13" s="1">
-        <v>51.7928</v>
+        <v>52.9006</v>
       </c>
       <c r="AR13" s="1">
-        <v>659.5029999999999</v>
+        <v>594.967</v>
       </c>
       <c r="AS13" s="1">
-        <v>193.372</v>
+        <v>263.584</v>
       </c>
       <c r="AT13" s="1">
-        <v>277.365</v>
+        <v>327.711</v>
       </c>
       <c r="AU13" s="1">
-        <v>557.698</v>
+        <v>525.734</v>
       </c>
       <c r="AV13" s="1">
-        <v>406.177</v>
+        <v>423.901</v>
       </c>
       <c r="AW13" s="1">
-        <v>509.023</v>
+        <v>346.1679999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>1156.02</v>
+        <v>1464</v>
       </c>
       <c r="AY13" s="1">
-        <v>621.3539999999999</v>
+        <v>587.941</v>
       </c>
       <c r="AZ13" s="1">
-        <v>233.02</v>
+        <v>244.034</v>
       </c>
       <c r="BA13" s="1">
-        <v>301.984</v>
+        <v>310.881</v>
       </c>
       <c r="BB13" s="1">
-        <v>536.405</v>
+        <v>516.458</v>
       </c>
       <c r="BC13" s="1">
-        <v>409.341</v>
+        <v>411.153</v>
       </c>
       <c r="BD13" s="1">
-        <v>424.748</v>
+        <v>357.417</v>
       </c>
       <c r="BE13" s="1">
-        <v>1464</v>
+        <v>1464.18</v>
       </c>
       <c r="BF13" s="1">
-        <v>495.334</v>
+        <v>486.643</v>
       </c>
       <c r="BG13" s="1">
-        <v>336.322</v>
+        <v>344.287</v>
       </c>
       <c r="BH13" s="1">
-        <v>366.31</v>
+        <v>372.232</v>
       </c>
       <c r="BI13" s="1">
-        <v>461.854</v>
+        <v>456.958</v>
       </c>
       <c r="BJ13" s="1">
-        <v>411.645</v>
+        <v>414.149</v>
       </c>
       <c r="BK13" s="1">
-        <v>167.401</v>
+        <v>150.486</v>
       </c>
       <c r="BL13" s="1">
-        <v>1567.99</v>
+        <v>1663.31</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
@@ -3459,139 +3452,139 @@
         <v>124</v>
       </c>
       <c r="T18" s="1">
-        <v>54.88144444444445</v>
+        <v>235.9263222222222</v>
       </c>
       <c r="U18" s="1">
-        <v>61.70632222222223</v>
+        <v>240.1500222222222</v>
       </c>
       <c r="V18" s="1">
-        <v>58.29387777777778</v>
+        <v>238.0378888888889</v>
       </c>
       <c r="W18" s="1">
-        <v>95.8583</v>
+        <v>257.459</v>
       </c>
       <c r="X18" s="1">
-        <v>105.7097333333333</v>
+        <v>269.8733333333333</v>
       </c>
       <c r="Y18" s="1">
-        <v>100.7839222222222</v>
+        <v>263.6661111111111</v>
       </c>
       <c r="Z18" s="1">
-        <v>232.7168888888889</v>
+        <v>428.876</v>
       </c>
       <c r="AA18" s="1">
-        <v>235.7053333333333</v>
+        <v>437.11</v>
       </c>
       <c r="AB18" s="1">
-        <v>234.2111111111112</v>
+        <v>432.9931111111111</v>
       </c>
       <c r="AC18" s="1">
-        <v>27.81804444444445</v>
+        <v>32.47574444444444</v>
       </c>
       <c r="AD18" s="1">
-        <v>25.29706666666667</v>
+        <v>28.43738888888889</v>
       </c>
       <c r="AE18" s="1">
-        <v>30.6850888888889</v>
+        <v>33.72523333333334</v>
       </c>
       <c r="AF18" s="1">
-        <v>28.19771111111111</v>
+        <v>31.42666666666667</v>
       </c>
       <c r="AG18" s="1">
-        <v>24.45206666666667</v>
+        <v>28.33695555555556</v>
       </c>
       <c r="AH18" s="1">
-        <v>21.16051111111111</v>
+        <v>25.01773333333334</v>
       </c>
       <c r="AI18" s="1">
-        <v>9.354541111111113</v>
+        <v>5.725272222222223</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10.26434111111111</v>
+        <v>6.539306666666667</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.987165555555555</v>
+        <v>5.79395</v>
       </c>
       <c r="AL18" s="1">
-        <v>7.596597777777778</v>
+        <v>6.217643333333332</v>
       </c>
       <c r="AM18" s="1">
-        <v>3.570958888888889</v>
+        <v>2.940068888888889</v>
       </c>
       <c r="AN18" s="1">
-        <v>4.122965555555556</v>
+        <v>3.326723333333334</v>
       </c>
       <c r="AO18" s="1">
-        <v>47.79315555555556</v>
+        <v>43.57493333333333</v>
       </c>
       <c r="AP18" s="1">
-        <v>48.50378888888889</v>
+        <v>47.02145555555555</v>
       </c>
       <c r="AQ18" s="1">
-        <v>50.62804444444445</v>
+        <v>52.17886666666666</v>
       </c>
       <c r="AR18" s="1">
-        <v>601.3763333333334</v>
+        <v>555.3601111111111</v>
       </c>
       <c r="AS18" s="1">
-        <v>169.4755555555556</v>
+        <v>245.4704444444444</v>
       </c>
       <c r="AT18" s="1">
-        <v>255.8554444444444</v>
+        <v>307.4483333333334</v>
       </c>
       <c r="AU18" s="1">
-        <v>514.9961111111111</v>
+        <v>493.3822222222222</v>
       </c>
       <c r="AV18" s="1">
-        <v>385.4258888888889</v>
+        <v>400.4152222222222</v>
       </c>
       <c r="AW18" s="1">
-        <v>431.9006666666667</v>
+        <v>309.8897777777777</v>
       </c>
       <c r="AX18" s="1">
-        <v>1140.477777777778</v>
+        <v>1448.092222222222</v>
       </c>
       <c r="AY18" s="1">
-        <v>566.9479999999999</v>
+        <v>549.519</v>
       </c>
       <c r="AZ18" s="1">
-        <v>209.82</v>
+        <v>223.9016666666667</v>
       </c>
       <c r="BA18" s="1">
-        <v>281.2455555555555</v>
+        <v>289.0251111111111</v>
       </c>
       <c r="BB18" s="1">
-        <v>495.5224444444444</v>
+        <v>484.3956666666666</v>
       </c>
       <c r="BC18" s="1">
-        <v>388.3838888888889</v>
+        <v>386.7104444444445</v>
       </c>
       <c r="BD18" s="1">
-        <v>357.1278888888889</v>
+        <v>325.6174444444444</v>
       </c>
       <c r="BE18" s="1">
-        <v>1362.012222222222</v>
+        <v>1449.128888888889</v>
       </c>
       <c r="BF18" s="1">
-        <v>462.9147777777777</v>
+        <v>459.1597777777778</v>
       </c>
       <c r="BG18" s="1">
-        <v>318.0567777777778</v>
+        <v>320.7518888888889</v>
       </c>
       <c r="BH18" s="1">
-        <v>347.0285555555556</v>
+        <v>348.4332222222222</v>
       </c>
       <c r="BI18" s="1">
-        <v>433.943</v>
+        <v>431.4782222222222</v>
       </c>
       <c r="BJ18" s="1">
-        <v>390.4857777777777</v>
+        <v>389.9557777777778</v>
       </c>
       <c r="BK18" s="1">
-        <v>144.8578888888889</v>
+        <v>138.4081111111111</v>
       </c>
       <c r="BL18" s="1">
-        <v>1442.177777777778</v>
+        <v>1649.238888888889</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
@@ -3599,139 +3592,139 @@
         <v>125</v>
       </c>
       <c r="T19" s="1">
-        <v>10.26309531867686</v>
+        <v>64.5870215023245</v>
       </c>
       <c r="U19" s="1">
-        <v>8.299745479869687</v>
+        <v>67.24470647818521</v>
       </c>
       <c r="V19" s="1">
-        <v>9.277515048615333</v>
+        <v>65.90737901773711</v>
       </c>
       <c r="W19" s="1">
-        <v>72.9525788747884</v>
+        <v>8.864125788818644</v>
       </c>
       <c r="X19" s="1">
-        <v>73.77622118782959</v>
+        <v>8.017250443055069</v>
       </c>
       <c r="Y19" s="1">
-        <v>73.35692930936727</v>
+        <v>8.436107481066056</v>
       </c>
       <c r="Z19" s="1">
-        <v>87.0489388823506</v>
+        <v>53.50666343965436</v>
       </c>
       <c r="AA19" s="1">
-        <v>90.93190432772573</v>
+        <v>51.87093228389096</v>
       </c>
       <c r="AB19" s="1">
-        <v>88.98802105083139</v>
+        <v>52.6887560458047</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.9497869586984132</v>
+        <v>0.6161971746321885</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.515535628685782</v>
+        <v>0.9774819082661605</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.2333009760633209</v>
+        <v>0.3827623167333886</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.3357906803168524</v>
+        <v>0.5690701460374732</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.075365105957558</v>
+        <v>1.735404132318792</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.78657451924213</v>
+        <v>1.220062723342078</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.246673050914531</v>
+        <v>0.374937684149062</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1.226854234477071</v>
+        <v>0.4008616158282611</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.7895899580881078</v>
+        <v>0.3670757534593884</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.7953915127194741</v>
+        <v>0.3827920714376874</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.4285258041613117</v>
+        <v>0.2316803351097007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.4749483912106455</v>
+        <v>0.24707040948775</v>
       </c>
       <c r="AO19" s="1">
-        <v>2.263161000857533</v>
+        <v>1.304087540517634</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.379303498504827</v>
+        <v>0.7257888813194325</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.8307814234684403</v>
+        <v>0.6832946021543951</v>
       </c>
       <c r="AR19" s="1">
-        <v>39.11445844640514</v>
+        <v>31.10076591212806</v>
       </c>
       <c r="AS19" s="1">
-        <v>15.9244138431188</v>
+        <v>12.638789104368</v>
       </c>
       <c r="AT19" s="1">
-        <v>13.68538048925941</v>
+        <v>15.80147056447593</v>
       </c>
       <c r="AU19" s="1">
-        <v>30.87258397724586</v>
+        <v>27.0962489604815</v>
       </c>
       <c r="AV19" s="1">
-        <v>19.73113707623024</v>
+        <v>21.25303838554111</v>
       </c>
       <c r="AW19" s="1">
-        <v>44.83046964584095</v>
+        <v>21.14781309827345</v>
       </c>
       <c r="AX19" s="1">
-        <v>9.585613963733827</v>
+        <v>9.131733166123722</v>
       </c>
       <c r="AY19" s="1">
-        <v>36.52835280831712</v>
+        <v>30.80042158441632</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.74352740093844</v>
+        <v>12.35341529024801</v>
       </c>
       <c r="BA19" s="1">
-        <v>14.12285469341655</v>
+        <v>15.72039852791726</v>
       </c>
       <c r="BB19" s="1">
-        <v>29.48934375182975</v>
+        <v>26.92139234058213</v>
       </c>
       <c r="BC19" s="1">
-        <v>19.97004652219833</v>
+        <v>21.20277275950855</v>
       </c>
       <c r="BD19" s="1">
-        <v>38.83468120820885</v>
+        <v>20.10774624152544</v>
       </c>
       <c r="BE19" s="1">
-        <v>37.00387900921191</v>
+        <v>8.831420477721636</v>
       </c>
       <c r="BF19" s="1">
-        <v>25.33158397809947</v>
+        <v>24.91561698916198</v>
       </c>
       <c r="BG19" s="1">
-        <v>15.57003682845697</v>
+        <v>18.09589183239876</v>
       </c>
       <c r="BH19" s="1">
-        <v>17.24621917413986</v>
+        <v>19.38320643568538</v>
       </c>
       <c r="BI19" s="1">
-        <v>23.17305708983794</v>
+        <v>23.48836632026719</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.08069726422078</v>
+        <v>21.3973684611386</v>
       </c>
       <c r="BK19" s="1">
-        <v>12.4617036952278</v>
+        <v>8.068680526089681</v>
       </c>
       <c r="BL19" s="1">
-        <v>82.23880292278602</v>
+        <v>8.615395063417894</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
@@ -3739,139 +3732,139 @@
         <v>126</v>
       </c>
       <c r="T20" s="1">
-        <v>18.70048323721876</v>
+        <v>27.3759285924396</v>
       </c>
       <c r="U20" s="1">
-        <v>13.45039727044486</v>
+        <v>28.00112440379476</v>
       </c>
       <c r="V20" s="1">
-        <v>15.91507616628657</v>
+        <v>27.6877682478949</v>
       </c>
       <c r="W20" s="1">
-        <v>76.10460322662554</v>
+        <v>3.442927141338483</v>
       </c>
       <c r="X20" s="1">
-        <v>69.79132276797242</v>
+        <v>2.970745699113807</v>
       </c>
       <c r="Y20" s="1">
-        <v>72.78634100746729</v>
+        <v>3.199541816548054</v>
       </c>
       <c r="Z20" s="1">
-        <v>37.40550988712825</v>
+        <v>12.47602184306288</v>
       </c>
       <c r="AA20" s="1">
-        <v>38.57863674180435</v>
+        <v>11.86679149044656</v>
       </c>
       <c r="AB20" s="1">
-        <v>37.99479052409898</v>
+        <v>12.1684975335056</v>
       </c>
       <c r="AC20" s="1">
-        <v>3.41428370565457</v>
+        <v>1.897407388724541</v>
       </c>
       <c r="AD20" s="1">
-        <v>2.037926513294487</v>
+        <v>3.437312448359435</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.760307317042837</v>
+        <v>1.134943420406447</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.190843749670648</v>
+        <v>1.810787482087844</v>
       </c>
       <c r="AG20" s="1">
-        <v>4.397849558554935</v>
+        <v>6.12417282765777</v>
       </c>
       <c r="AH20" s="1">
-        <v>3.717181097904151</v>
+        <v>4.876791622510746</v>
       </c>
       <c r="AI20" s="1">
-        <v>13.32692898675447</v>
+        <v>6.548818459561958</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11.95258634915208</v>
+        <v>6.130032375933756</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.30057606063589</v>
+        <v>6.335500883842429</v>
       </c>
       <c r="AL20" s="1">
-        <v>10.47036497109564</v>
+        <v>6.156545992040191</v>
       </c>
       <c r="AM20" s="1">
-        <v>12.00030068939406</v>
+        <v>7.88009886384864</v>
       </c>
       <c r="AN20" s="1">
-        <v>11.51958183523189</v>
+        <v>7.426839707773012</v>
       </c>
       <c r="AO20" s="1">
-        <v>4.735324492702301</v>
+        <v>2.992747069839008</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.843702585100097</v>
+        <v>1.5435270404633</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1.640951043211001</v>
+        <v>1.309523655466636</v>
       </c>
       <c r="AR20" s="1">
-        <v>6.504156595188892</v>
+        <v>5.600107982171179</v>
       </c>
       <c r="AS20" s="1">
-        <v>9.396289506718057</v>
+        <v>5.148802794964772</v>
       </c>
       <c r="AT20" s="1">
-        <v>5.348872101969678</v>
+        <v>5.139553170823042</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.994721768022256</v>
+        <v>5.491938651222255</v>
       </c>
       <c r="AV20" s="1">
-        <v>5.119307665894327</v>
+        <v>5.307749857158555</v>
       </c>
       <c r="AW20" s="1">
-        <v>10.37981024475712</v>
+        <v>6.824301611342134</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.8404910775562332</v>
+        <v>0.6306043928687283</v>
       </c>
       <c r="AY20" s="1">
-        <v>6.442981156705223</v>
+        <v>5.604978460147205</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.026750262576702</v>
+        <v>5.51733958668523</v>
       </c>
       <c r="BA20" s="1">
-        <v>5.021538799259996</v>
+        <v>5.439111663164039</v>
       </c>
       <c r="BB20" s="1">
-        <v>5.951162067924445</v>
+        <v>5.557727740596799</v>
       </c>
       <c r="BC20" s="1">
-        <v>5.14183185593249</v>
+        <v>5.482854953651136</v>
       </c>
       <c r="BD20" s="1">
-        <v>10.87416648669834</v>
+        <v>6.175266892052568</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.716853667350898</v>
+        <v>0.6094296059816374</v>
       </c>
       <c r="BF20" s="1">
-        <v>5.47219168498006</v>
+        <v>5.426350084440657</v>
       </c>
       <c r="BG20" s="1">
-        <v>4.895363946413226</v>
+        <v>5.641710137728084</v>
       </c>
       <c r="BH20" s="1">
-        <v>4.969683012549358</v>
+        <v>5.562961623482401</v>
       </c>
       <c r="BI20" s="1">
-        <v>5.340115427564895</v>
+        <v>5.443696833480066</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.142491329261302</v>
+        <v>5.48712692066643</v>
       </c>
       <c r="BK20" s="1">
-        <v>8.602709725244146</v>
+        <v>5.829629825388134</v>
       </c>
       <c r="BL20" s="1">
-        <v>5.702403974737851</v>
+        <v>0.5223861213472952</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>
